--- a/xo-starter-excel/src/test/resources/META-INF/xo/excel/grouping.xlsx
+++ b/xo-starter-excel/src/test/resources/META-INF/xo/excel/grouping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="15480" windowHeight="11640"/>
@@ -9,8 +9,47 @@
   <sheets>
     <sheet name="部门信息一览表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hesong</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="F11")
+jx:each(items="departments",var="department",lastCell="F9")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="department.employees",var="employee",lastCell="F8")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,71 +110,71 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>部门名称：//departments</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.chief.name}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.chief.age}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.chief.birthDate}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.chief.payment}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.chief.bonus}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.employees.name}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.employees.age}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.employees.birthDate}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.employees.payment}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${departments.employees.bonus}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[D8*(1+E8)]//departments.employees</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUM(F4+F9)]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${departments.name}//:11</t>
+    <t>部门名称：</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${department.name}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${department.chief.name}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${department.chief.age}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${department.chief.birthDate}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${department.chief.payment}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${department.chief.bonus}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.name}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.age}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.birthDate}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.payment}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.bonus}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[D8*(1+E8)]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,6 +242,13 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -383,27 +429,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,6 +528,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -511,6 +563,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,14 +739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
@@ -707,36 +760,36 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -758,21 +811,21 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>11</v>
@@ -780,7 +833,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -790,19 +843,19 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -824,29 +877,29 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
@@ -862,7 +915,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -872,7 +925,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
@@ -881,12 +934,12 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="23" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
@@ -896,5 +949,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>